--- a/Site/Товары, которые надо удалить на авито.xlsx
+++ b/Site/Товары, которые надо удалить на авито.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A164"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,49 +681,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Azzaro Azzaro Pour Homme Amber Fever Мужской туалетная вода 100 мл</t>
+          <t>Azzaro Twin for Men Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Azzaro Twin for Men Мужской туалетная вода 50 мл</t>
+          <t>Azzaro Azzaro Chrome Limited Edition 2015 Мужской туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Azzaro Azzaro Chrome Limited Edition 2015 Мужской туалетная вода 100 мл</t>
+          <t>Azzaro Jolie Rose Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Azzaro Jolie Rose Женский туалетная вода 50 мл</t>
+          <t>Armaf Voyage Intense Мужской парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Armaf Voyage Intense Мужской парфюмерная вода 100 мл</t>
+          <t>Armaf Sauville pour Femme Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Armaf Sauville pour Femme Женский парфюмерная вода 100 мл</t>
+          <t>Armaf Armaf Marjan Silver Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Armaf Armaf Marjan Silver Женский парфюмерная вода 100 мл</t>
+          <t>Armaf Armaf Le Parfait Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
@@ -737,845 +737,817 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Armaf Armaf Le Parfait Женский парфюмерная вода 100 мл</t>
+          <t>Creed Aventus Мужской парфюмерная вода 2.5 мл</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Armaf Aura Мужской парфюмерная вода 100 мл</t>
+          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Creed Aventus Мужской парфюмерная вода 2.5 мл</t>
+          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 12.5 мл</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 75 мл</t>
+          <t>Yohji Yamamoto His Love Story Мужской туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Yohji Yamamoto His Love Story Мужской туалетная вода 100 мл</t>
+          <t>Antonio Puig Agua Brava Мужской одеколон 25 мл</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alexandre J The Majestic Jardin Унисекс парфюмерная вода 100 мл</t>
+          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Antonio Puig Agua Brava Мужской одеколон 25 мл</t>
+          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
+          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
+          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
+          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
+          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
+          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
+          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
+          <t>Borsalino Panama Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
+          <t>Cacharel Noa Dream Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Borsalino Panama Мужской туалетная вода 50 мл</t>
+          <t>Cacharel Scarlett Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cacharel Noa Dream Женский туалетная вода 100 мл</t>
+          <t>Cacharel Scarlett Женский туалетная вода 80 мл</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cacharel Scarlett Женский туалетная вода 50 мл</t>
+          <t>Cacharel Yes I am Fabulous Женский парфюмерная вода 30 мл</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cacharel Scarlett Женский туалетная вода 80 мл</t>
+          <t>Caron Violette Precieuse Женский духи 30 мл</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Cacharel Yes I am Fabulous Женский парфюмерная вода 30 мл</t>
+          <t>Castelbajac Beautiful Day Bonheur Женский парфюмерная вода 90 мл</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Caron Violette Precieuse Женский духи 30 мл</t>
+          <t>Zeromolecole NEH 15ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Castelbajac Beautiful Day Bonheur Женский парфюмерная вода 90 мл</t>
+          <t>Zeromolecole NEH 5ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Zeromolecole NEH 15ml edp ОТЛИВАНТ</t>
+          <t>Azzaro Twin for Men Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zeromolecole NEH 5ml edp ОТЛИВАНТ</t>
+          <t>Azzaro Azzaro Chrome Limited Edition 2015 Мужской туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Azzaro Azzaro Pour Homme Amber Fever Мужской туалетная вода 100 мл</t>
+          <t>Azzaro Jolie Rose Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Azzaro Twin for Men Мужской туалетная вода 50 мл</t>
+          <t>Armaf Voyage Intense Мужской парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Azzaro Azzaro Chrome Limited Edition 2015 Мужской туалетная вода 100 мл</t>
+          <t>Armaf Sauville pour Femme Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Azzaro Jolie Rose Женский туалетная вода 50 мл</t>
+          <t>Armaf Armaf Marjan Silver Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Armaf Voyage Intense Мужской парфюмерная вода 100 мл</t>
+          <t>Armaf Armaf Le Parfait Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Armaf Sauville pour Femme Женский парфюмерная вода 100 мл</t>
+          <t>Creed Aventus Мужской парфюмерная вода 2.5 мл</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Armaf Armaf Marjan Silver Женский парфюмерная вода 100 мл</t>
+          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Armaf Armaf Le Parfait Женский парфюмерная вода 100 мл</t>
+          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 12.5 мл</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Armaf Aura Мужской парфюмерная вода 100 мл</t>
+          <t>Yohji Yamamoto His Love Story Мужской туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Creed Aventus Мужской парфюмерная вода 2.5 мл</t>
+          <t>Antonio Puig Agua Brava Мужской одеколон 25 мл</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Hermes Terre d Hermes Eau de Parfum Мужской парфюмерная вода 75 мл</t>
+          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Yohji Yamamoto His Love Story Мужской туалетная вода 100 мл</t>
+          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Alexandre J The Majestic Jardin Унисекс парфюмерная вода 100 мл</t>
+          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Antonio Puig Agua Brava Мужской одеколон 25 мл</t>
+          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Banana Republic Malachite Женский парфюмерная вода 50 мл</t>
+          <t>Borsalino Panama Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Blend Oud Oud Sapphire Унисекс парфюмерная вода 60 мл</t>
+          <t>Cacharel Noa Dream Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Blumarine Mon Bouquet Blanc Женский туалетная вода 100 мл</t>
+          <t>Cacharel Scarlett Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Blumarine Ninfea Женский парфюмерная вода 100 мл</t>
+          <t>Cacharel Scarlett Женский туалетная вода 80 мл</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Borsalino Panama Мужской туалетная вода 50 мл</t>
+          <t>Cacharel Yes I am Fabulous Женский парфюмерная вода 30 мл</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Cacharel Noa Dream Женский туалетная вода 100 мл</t>
+          <t>Caron Violette Precieuse Женский духи 30 мл</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cacharel Scarlett Женский туалетная вода 50 мл</t>
+          <t>Castelbajac Beautiful Day Bonheur Женский парфюмерная вода 90 мл</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cacharel Scarlett Женский туалетная вода 80 мл</t>
+          <t>Chopard Madness Женский парфюмерная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Cacharel Yes I am Fabulous Женский парфюмерная вода 30 мл</t>
+          <t>Clean Black Leather Мужской туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Caron Violette Precieuse Женский духи 30 мл</t>
+          <t>Clean Endless Summer Женский туалетная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Castelbajac Beautiful Day Bonheur Женский парфюмерная вода 90 мл</t>
+          <t>Clinique Calyx Женский парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chopard Madness Женский парфюмерная вода 75 мл</t>
+          <t>Elizabeth Arden My Fifth Avenue Женский парфюмерная вода 30 мл</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clean Black Leather Мужской туалетная вода 100 мл</t>
+          <t>Emper Lady Presidente Женский парфюмерная вода 80 мл</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Clean Endless Summer Женский туалетная вода 60 мл</t>
+          <t>Escada Taj Sunset Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Clinique Calyx Женский парфюмерная вода 50 мл</t>
+          <t>Estee Lauder Bronze Goddess Eau Fraiche 2019 Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>S.T. Dupont Passenger Escapade Men Мужской туалетная вода 30 мл</t>
+          <t>Etat Libre d Orange Bijou Romantique Женский парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Elizabeth Arden My Fifth Avenue Женский парфюмерная вода 30 мл</t>
+          <t>Etro Dianthus Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Emper Lady Presidente Женский парфюмерная вода 80 мл</t>
+          <t>Fendi Palazzo Женский парфюмерная вода 10 мл</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Escada Taj Sunset Женский туалетная вода 50 мл</t>
+          <t>Fragrance World Evidence Женский парфюмерная вода 80 мл</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Estee Lauder Bronze Goddess Eau Fraiche 2019 Женский туалетная вода 50 мл</t>
+          <t>Frapin Passion Boisee Мужской парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Etat Libre d Orange Bijou Romantique Женский парфюмерная вода 50 мл</t>
+          <t>Gabriela Sabatini Wild Wind Мужской туалетная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Etro Dianthus Женский туалетная вода 50 мл</t>
+          <t>Ghost Ghost Cherish Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Fendi Palazzo Женский парфюмерная вода 10 мл</t>
+          <t>Ghost Sweetheart Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Fragrance World Evidence Женский парфюмерная вода 80 мл</t>
+          <t>Ghost Sweetheart Женский туалетная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Frapin Passion Boisee Мужской парфюмерная вода 100 мл</t>
+          <t>Gres Cabochard Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gabriela Sabatini Wild Wind Мужской туалетная вода 75 мл</t>
+          <t>Gucci Bloom Acqua di Fiori Женский туалетная вода 30 мл</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ghost Ghost Cherish Женский туалетная вода 50 мл</t>
+          <t>Azzaro The Most Wanted Мужской парфюмерная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ghost Sweetheart Женский туалетная вода 50 мл</t>
+          <t>Gucci Gucci Guilty Eau Pour Homme Мужской туалетная вода 90 мл</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ghost Sweetheart Женский туалетная вода 75 мл</t>
+          <t>Gucci Gucci By Gucci Pour Homme Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gres Cabochard Женский туалетная вода 100 мл</t>
+          <t>Issey Miyake L Eau Super Majeure D Issey Мужской туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Azzaro The Most Wanted Мужской парфюмерная вода 50 мл</t>
+          <t>Jean Couturier Coriandre Женский туалетная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gucci Gucci Guilty Eau Pour Homme Мужской туалетная вода 90 мл</t>
+          <t>Jean Couturier Coriandre Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gucci Gucci By Gucci Pour Homme Мужской туалетная вода 50 мл</t>
+          <t>Jean Desprez Bal a Versailles Женский туалетная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Issey Miyake L Eau Super Majeure D Issey Мужской туалетная вода 50 мл</t>
+          <t>Jean Patou Joy Forever Женский туалетная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Jean Couturier Coriandre Женский туалетная вода 100 мл</t>
+          <t>Jean Paul Gaultier Le Male Le Parfum Мужской парфюмерная вода 125 мл</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jean Couturier Coriandre Женский туалетная вода 50 мл</t>
+          <t>Jean Paul Gaultier Ultra Male Мужской туалетная вода 75 мл</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jean Desprez Bal a Versailles Женский туалетная вода 60 мл</t>
+          <t>Jeanne Arthes Love Generation Do Brasil Женский парфюмерная вода 60 мл</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Jean Patou Joy Forever Женский туалетная вода 75 мл</t>
+          <t>John Richmond Viva Rock Женский туалетная вода 50 мл</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Jean Paul Gaultier Le Male Le Parfum Мужской парфюмерная вода 125 мл</t>
+          <t>Kajal Fiddah Мужской парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Jeanne Arthes Love Generation Do Brasil Женский парфюмерная вода 60 мл</t>
+          <t>Xerjoff ASCOT MOON 3ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>John Richmond Viva Rock Женский туалетная вода 50 мл</t>
+          <t>Xerjoff ASCOT MOON 5ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Kajal Fiddah Мужской парфюмерная вода 100 мл</t>
+          <t>Xerjoff ASCOT MOON 10ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Xerjoff ASCOT MOON 3ml edp ОТЛИВАНТ</t>
+          <t>Xerjoff ASCOT MOON 15ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Xerjoff ASCOT MOON 5ml edp ОТЛИВАНТ</t>
+          <t>Xerjoff 40 KNOTS 3ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Xerjoff ASCOT MOON 10ml edp ОТЛИВАНТ</t>
+          <t>Xerjoff 40 KNOTS 5ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Xerjoff ASCOT MOON 15ml edp ОТЛИВАНТ</t>
+          <t>Xerjoff 40 KNOTS 10ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Xerjoff 40 KNOTS 3ml edp ОТЛИВАНТ</t>
+          <t>Xerjoff 40 KNOTS 15ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Xerjoff 40 KNOTS 5ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 1ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Xerjoff 40 KNOTS 10ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 2ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Xerjoff 40 KNOTS 15ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 15ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 1ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 30ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 2ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 1ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 15ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 2ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie BASILICO &amp;amp; FELLINI 30ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 5ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 1ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 10ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 2ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 15ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 5ml edp ОТЛИВАНТ</t>
+          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 30ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 10ml edp ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB 1ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 15ml edp ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB 2ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Vilhelm Parfumerie 125TH &amp;amp; BLOOM 30ml edp ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB 15ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB 1ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB 10ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB 2ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB 5ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB 15ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf Flowerbomb BLOOM 1ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB 10ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf Flowerbomb BLOOM 2ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB 5ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 1ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf Flowerbomb BLOOM 1ml edt ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 2ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf Flowerbomb BLOOM 2ml edt ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 10ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 1ml edP ОТЛИВАНТ</t>
+          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 15ml edP ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 2ml edP ОТЛИВАНТ</t>
+          <t>Tom Ford Tobacco OUD 1ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 10ml edP ОТЛИВАНТ</t>
+          <t>Tom Ford Mandarino Di Amalfi ACQUA 1ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Viktor&amp;amp;Rolf FLOWERBOMB MIDNIGHT 15ml edP ОТЛИВАНТ</t>
+          <t>Tom Ford Mandarino Di Amalfi ACQUA 3ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>V Canto ENSIS 2ml edp ОТЛИВАНТ</t>
+          <t>Tom Ford Mandarino Di Amalfi ACQUA 5ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Tom Ford Tobacco OUD 1ml edp ОТЛИВАНТ</t>
+          <t>The Different Company  JASMIN DE NUIT     2ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Tom Ford Mandarino Di Amalfi ACQUA 1ml edt ОТЛИВАНТ</t>
+          <t>The Different Company  AURORE NOMADE     1ml edp ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tom Ford Mandarino Di Amalfi ACQUA 3ml edt ОТЛИВАНТ</t>
+          <t>Teo Cabanel  JULIA     3ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Tom Ford Mandarino Di Amalfi ACQUA 5ml edt ОТЛИВАНТ</t>
+          <t>Teo Cabanel  JULIA     5ml edt ОТЛИВАНТ</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>The Different Company  JASMIN DE NUIT     2ml edp ОТЛИВАНТ</t>
+          <t>Alexander McQueen My Queen Женский парфюмерная вода 125 мл</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>The Different Company  AURORE NOMADE     1ml edp ОТЛИВАНТ</t>
+          <t>Antonio Visconti Bois de Gayac Мужской парфюмерная вода 100 мл</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
-        <is>
-          <t>Teo Cabanel  JULIA     3ml edt ОТЛИВАНТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Teo Cabanel  JULIA     5ml edt ОТЛИВАНТ</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Alexander McQueen My Queen Женский парфюмерная вода 125 мл</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Antonio Visconti Bois de Gayac Мужской парфюмерная вода 100 мл</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
         <is>
           <t>Armaf Hunter For Woman Женский парфюмерная вода 100 мл</t>
         </is>
